--- a/プロトタイプ/ミニ四駆ラップタイマ仕様書.xlsx
+++ b/プロトタイプ/ミニ四駆ラップタイマ仕様書.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/k16025kk/Documents/github/4WD_LapTimer/プロトタイプ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04423437-E274-624A-9E42-00618C007991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98D2823-B2E8-424A-886F-9A39461D3ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B4BB045C-8872-7E41-9A08-B4D6FDE1A868}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{B4BB045C-8872-7E41-9A08-B4D6FDE1A868}"/>
   </bookViews>
   <sheets>
     <sheet name="全体図" sheetId="1" r:id="rId1"/>
     <sheet name="回路図" sheetId="3" r:id="rId2"/>
+    <sheet name="I_F" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>7seg制御IC使い方</t>
     <rPh sb="0" eb="2">
@@ -44,6 +46,36 @@
       <t>ホン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x3f</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>0x5b</t>
+  </si>
+  <si>
+    <t>0x4f</t>
+  </si>
+  <si>
+    <t>0x66</t>
+  </si>
+  <si>
+    <t>0x6d</t>
+  </si>
+  <si>
+    <t>0x7d</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0x7f</t>
+  </si>
+  <si>
+    <t>0x6f</t>
   </si>
 </sst>
 </file>
@@ -3429,7 +3461,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3484,7 +3516,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3539,7 +3571,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3594,7 +3626,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3649,7 +3681,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3704,7 +3736,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4156,11 +4188,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5268,11 +5300,11 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:srgbClr val="FFC000"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -5499,7 +5531,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>364943</xdr:colOff>
+      <xdr:colOff>738120</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>211667</xdr:rowOff>
     </xdr:to>
@@ -5516,8 +5548,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7554310" y="6853621"/>
-          <a:ext cx="459828" cy="0"/>
+          <a:off x="7547760" y="6702778"/>
+          <a:ext cx="832069" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5548,13 +5580,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>301423</xdr:colOff>
+      <xdr:colOff>388263</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>111046</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>506577</xdr:colOff>
+      <xdr:colOff>593417</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>60740</xdr:rowOff>
     </xdr:to>
@@ -5571,8 +5603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7950618" y="6753000"/>
-          <a:ext cx="205154" cy="205154"/>
+          <a:off x="8029972" y="6602157"/>
+          <a:ext cx="205154" cy="199352"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6933,7 +6965,7 @@
         </a:prstGeom>
         <a:ln w="57150">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="FFC000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -7290,11 +7322,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>500820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>249446</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1717448" cy="611706"/>
+      <xdr:colOff>522529</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>184318</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2006616" cy="830805"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="205" name="テキスト ボックス 204">
@@ -7308,8 +7340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10068153" y="6599446"/>
-          <a:ext cx="1717448" cy="611706"/>
+          <a:off x="10074666" y="6176113"/>
+          <a:ext cx="2006616" cy="830805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7369,6 +7401,12 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>DIG.1~6</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+            <a:t>(7seg 22, 3, 4, 16, 13, 12)</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
         </a:p>
       </xdr:txBody>
@@ -7444,11 +7482,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>145220</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>232512</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1717448" cy="611706"/>
+      <xdr:colOff>156074</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>243368</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2568456" cy="830805"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="207" name="テキスト ボックス 206">
@@ -7462,8 +7500,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9712553" y="4550512"/>
-          <a:ext cx="1717448" cy="611706"/>
+          <a:off x="9708211" y="4237898"/>
+          <a:ext cx="2568456" cy="830805"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7523,7 +7561,12 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
             <a:t>A~G, DP1</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>(7seg 15, 20, 19, 5, 1, 14, 17, 8)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8001,6 +8044,1944 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533247</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>231846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533247</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88E15F81-E664-3A4F-9304-0EAB2393D12C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8174956" y="5225008"/>
+          <a:ext cx="0" cy="3925505"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525203</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>824958</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5861</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DCAEDE-B837-DF44-B4A4-DCC832E56E17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8166912" y="5248682"/>
+          <a:ext cx="299755" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514783</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>814538</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1F11670-CE20-D34D-9A04-5C2506644A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8156492" y="9124244"/>
+          <a:ext cx="299755" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504362</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>804117</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>245533</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直線コネクタ 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B297EF8-E60C-E94A-AFC1-EA2CE4F3F48C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8146071" y="7235960"/>
+          <a:ext cx="299755" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>379104</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="P-04708.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8F206F-6A5B-084A-B481-16680C558019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4762500" y="1778000"/>
+          <a:ext cx="14666604" cy="10995671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>815076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>195998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>435971</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>195999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6CA729-5533-C94B-A272-DD29A11C247C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="24785" t="35341" r="18539" b="35595"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5261023" y="7053051"/>
+          <a:ext cx="4064001" cy="1525895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626280</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>759</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4" descr="M-11246.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F934F8D0-40F2-3D48-9A88-B9392220AE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16113" t="25513" r="16548" b="25395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="8246280" y="7283356"/>
+          <a:ext cx="3184479" cy="1740089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>627038</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>58382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1517</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5" descr="M-11246.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED8352E3-6D1A-AC41-B690-74DD1C076F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16113" t="25513" r="16548" b="25395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="8247038" y="9202382"/>
+          <a:ext cx="3184479" cy="1740090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>322239</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>227462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>341194</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>208507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3788491B-9A56-654E-925C-57088EE08F24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="29214" t="41152" r="23416" b="38738"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11752239" y="5561462"/>
+          <a:ext cx="3828955" cy="1251045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>379863</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>398818</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF90838-7E0E-BC46-BA08-18EA04DBFAD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="29214" t="41152" r="23416" b="38738"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11809863" y="7480489"/>
+          <a:ext cx="3828955" cy="1251045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>427657</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>185803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446612</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7414FE4-21D9-E844-BD6D-A6730E6ADDD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="29214" t="41152" r="23416" b="38738"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11857657" y="9583803"/>
+          <a:ext cx="3828955" cy="1251046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>744503</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>840153</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>90693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11" descr="M-11009.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084DAE57-BB56-3648-9312-08AE0AB48FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="29783" t="26556" r="22873" b="36481"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="5507003" y="2884693"/>
+          <a:ext cx="3905650" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435972</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>303285</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>37913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12" descr="P-04367.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB8DD06-6CE4-974C-8B0B-4076A386D7C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30031" t="42402" r="23220" b="39387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="6036766" y="13899393"/>
+          <a:ext cx="2953226" cy="819813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>758970</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>626284</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15" descr="P-04367.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78688C51-2C0B-4D48-A9A9-1C955845F4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30031" t="42402" r="23220" b="39387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="8264764" y="13919106"/>
+          <a:ext cx="2953226" cy="819814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247938</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115251</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>39429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16" descr="P-04367.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7055840C-D5DC-404F-9D88-2EEA5DFE6788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30031" t="42402" r="23220" b="39387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="10611232" y="13900909"/>
+          <a:ext cx="2953226" cy="819813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>514069</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>116005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381383</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>21231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17" descr="P-04367.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AD5531-E885-394B-9F6C-49BE7E45DBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30031" t="42402" r="23220" b="39387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="12782363" y="13882711"/>
+          <a:ext cx="2953226" cy="819814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663433</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>208508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>663433</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>227463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F09243B-8C6F-8B4D-B63F-25C8565C4943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6378433" y="5034508"/>
+          <a:ext cx="9525000" cy="6368955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>663432</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>170598</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37911</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>132687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29" descr="M-11246.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26B90B7C-CF28-9A4B-BBE9-9532A5ADFA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16113" t="25513" r="16548" b="25395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="8283432" y="5250598"/>
+          <a:ext cx="3184479" cy="1740089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406407</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31" descr="C-16795.jpg (640×480)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AC0A54-37CF-0948-9423-389B7CB9ABD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="41623" t="28853" r="36791" b="39033"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="16200000">
+          <a:off x="6724657" y="10102849"/>
+          <a:ext cx="1244600" cy="1358901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>852229</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>132687</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DCA54A-BCF8-3C4B-B8EC-8D95C497C3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6921500" y="11277600"/>
+          <a:ext cx="598229" cy="1555087"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>210027</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84801AB9-19CF-5A40-B94C-D2C0DA289FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="11303000"/>
+          <a:ext cx="2661127" cy="1549400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>664196</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134203</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA95501E-373F-694B-B51A-4D877163E2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7454900" y="11252200"/>
+          <a:ext cx="4639296" cy="1582003"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>930326</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>116005</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435139D8-382E-3749-8BF7-BF174D791B56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7645400" y="11252200"/>
+          <a:ext cx="6619926" cy="1563805"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>785630</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99540</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1052083" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{796CECAB-2879-4346-9BFA-24E012CC280B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13102614" y="6127000"/>
+          <a:ext cx="1052083" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>7SEG 0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790355</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>237173</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1052083" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1199CDAB-E7C5-3743-A201-DFA26248319A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13107339" y="8099078"/>
+          <a:ext cx="1052083" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>7SEG 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>883686</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>64689</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1052083" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC66504-ADD1-7D49-841A-757D1EA5A077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13200670" y="10285165"/>
+          <a:ext cx="1052083" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>7SEG 2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>288262</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2065694" cy="607282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42AC5812-2262-4F4C-BF6A-BB80F724D07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8927215" y="5863569"/>
+          <a:ext cx="2065694" cy="607282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>0x70</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>307755</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>20387</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2065694" cy="607282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2A6E131-8AA4-EF40-8CA2-4B2A40A79729}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8946708" y="7802829"/>
+          <a:ext cx="2065694" cy="607282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>0x74</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312481</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143253</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2065694" cy="607282"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB607F04-5A38-8B4F-8146-D36AE51BDB69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8951434" y="9683020"/>
+          <a:ext cx="2065694" cy="607282"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>address</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>0x72</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>423007</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>67895</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825419" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D5AE8E6-F06E-8244-9C1B-29C9605B94F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7055229" y="14219324"/>
+          <a:ext cx="825419" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> 0</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736676</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>159819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825419" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1B6C97-FC29-594A-82EC-C0B67D4E46DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9263819" y="14311248"/>
+          <a:ext cx="825419" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>183521</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>110632</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825419" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0DED02-0B7A-974E-ABF5-AC3B8E57D62E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11553045" y="14262061"/>
+          <a:ext cx="825419" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> 2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>477033</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>242872</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="825419" cy="468013"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB41F48B-B826-3B48-A035-F7AE6E47F899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13741477" y="14394301"/>
+          <a:ext cx="825419" cy="468013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400"/>
+            <a:t>SW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" baseline="0"/>
+            <a:t> 3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8303,8 +10284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8605D670-3784-A246-9FA7-B0E180FC1C97}">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView zoomScale="67" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A18" zoomScale="67" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8338,8 +10319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22A7C4A-F846-C544-BCAF-E1CD51DB0578}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="110" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D12" zoomScale="75" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8348,4 +10329,297 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CDAEFE-9836-8B4F-BD38-20E8E46C6370}">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="63" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD355833-06CE-E245-819F-FF2C6215BEC7}">
+  <dimension ref="B1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="B1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2">
+        <f>HEX2DEC(B1)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="str">
+        <f>RIGHT(B3,2)</f>
+        <v>3f</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:K4" si="0">RIGHT(C3,2)</f>
+        <v>06</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>5b</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>4f</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>6d</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>7d</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>07</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>7f</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>6f</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5">
+        <f>HEX2DEC(B4)</f>
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:K5" si="1">HEX2DEC(C4)</f>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6">
+        <f>B5+$B$2</f>
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:K6" si="2">C5+$B$2</f>
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" t="str">
+        <f>DEC2HEX(B6)</f>
+        <v>BF</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ref="C7:K7" si="3">DEC2HEX(C6)</f>
+        <v>86</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v>DB</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v>CF</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="3"/>
+        <v>E6</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>ED</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>FD</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v>FF</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="3"/>
+        <v>EF</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="str">
+        <f>"0x"&amp;B7</f>
+        <v>0xBF</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" ref="C8:K8" si="4">"0x"&amp;C7</f>
+        <v>0x86</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xDB</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xCF</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xE6</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xED</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xFD</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>0x87</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xFF</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v>0xEF</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>